--- a/output/scientists_df.xlsx
+++ b/output/scientists_df.xlsx
@@ -7,37 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="scientists" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Born</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>born_dt</t>
-  </si>
-  <si>
-    <t>died_dt</t>
-  </si>
-  <si>
-    <t>age_days_dt</t>
   </si>
   <si>
     <t>Rosaline Franklin</t>
@@ -45,102 +24,11 @@
   <si>
     <t>William Gosset</t>
   </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Rachel Carson</t>
-  </si>
-  <si>
-    <t>John Snow</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>Johann Gauss</t>
-  </si>
-  <si>
-    <t>1920-07-25</t>
-  </si>
-  <si>
-    <t>1876-06-13</t>
-  </si>
-  <si>
-    <t>1820-05-12</t>
-  </si>
-  <si>
-    <t>1867-11-07</t>
-  </si>
-  <si>
-    <t>1907-05-27</t>
-  </si>
-  <si>
-    <t>1813-03-15</t>
-  </si>
-  <si>
-    <t>1912-06-23</t>
-  </si>
-  <si>
-    <t>1777-04-30</t>
-  </si>
-  <si>
-    <t>1958-04-16</t>
-  </si>
-  <si>
-    <t>1937-10-16</t>
-  </si>
-  <si>
-    <t>1910-08-13</t>
-  </si>
-  <si>
-    <t>1934-07-04</t>
-  </si>
-  <si>
-    <t>1964-04-14</t>
-  </si>
-  <si>
-    <t>1858-06-16</t>
-  </si>
-  <si>
-    <t>1954-06-07</t>
-  </si>
-  <si>
-    <t>1855-02-23</t>
-  </si>
-  <si>
-    <t>Chemist</t>
-  </si>
-  <si>
-    <t>Statistician</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Biologist</t>
-  </si>
-  <si>
-    <t>Physician</t>
-  </si>
-  <si>
-    <t>Computer Scientist</t>
-  </si>
-  <si>
-    <t>Mathematician</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -193,13 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,244 +380,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7512</v>
-      </c>
-      <c r="G2" s="2">
-        <v>21291</v>
-      </c>
-      <c r="H2" s="3">
-        <v>13779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-8601</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13804</v>
-      </c>
-      <c r="H3" s="3">
-        <v>22404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-29087</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3878</v>
-      </c>
-      <c r="H4" s="3">
-        <v>32964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-11742</v>
-      </c>
-      <c r="G5" s="2">
-        <v>12604</v>
-      </c>
-      <c r="H5" s="3">
-        <v>24345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2704</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23481</v>
-      </c>
-      <c r="H6" s="3">
-        <v>20777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-31702</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-15173</v>
-      </c>
-      <c r="H7" s="3">
-        <v>16529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4558</v>
-      </c>
-      <c r="G8" s="2">
-        <v>19882</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
+      <c r="B3">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-44804</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-16382</v>
-      </c>
-      <c r="H9" s="3">
-        <v>28422</v>
       </c>
     </row>
   </sheetData>
